--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_0_11.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_0_11.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-393098.347117009</v>
+        <v>-394985.9286334108</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>614020.827033474</v>
+        <v>342514.2630005675</v>
       </c>
     </row>
     <row r="8">
@@ -659,22 +659,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>311.9323664294433</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -704,16 +704,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>5.511247540012855</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -795,7 +795,7 @@
         <v>225.8879277888686</v>
       </c>
       <c r="V3" t="n">
-        <v>232.800587149425</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -823,19 +823,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>50.28788303971709</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,19 +862,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>140.1336128527359</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -896,25 +896,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>382.5539551268312</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>225.0478618683253</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,28 +941,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1057,10 +1057,10 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1096,19 +1096,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>153.8100533453327</v>
       </c>
       <c r="T7" t="n">
-        <v>139.8939792152983</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,19 +1130,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>338.6788056484849</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>413.784170020795</v>
@@ -1151,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,28 +1178,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>269.5177472176161</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1291,13 +1291,13 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>112.701647550017</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1306,10 +1306,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1333,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1345,16 +1345,16 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>277.6461152259195</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1430,7 +1430,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174148</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1531,7 +1531,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1579,10 +1579,10 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>215.7053919670792</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1591,10 +1591,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>134.7426179953489</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1622,7 +1622,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I14" t="n">
         <v>81.77913505274074</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648052002</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1765,10 +1765,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1777,7 +1777,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1813,13 +1813,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>89.61819542349957</v>
       </c>
       <c r="U16" t="n">
-        <v>265.2692612119002</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1828,7 +1828,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1856,13 +1856,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>411.964516789693</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H17" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,10 +1999,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2011,7 +2011,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2050,13 +2050,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>137.93704299063</v>
       </c>
       <c r="U19" t="n">
-        <v>206.8064269214864</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2065,7 +2065,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634821</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2242,19 +2242,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>24.4066687370483</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2290,22 +2290,22 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>153.840380066451</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274068</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2445,7 +2445,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T24" t="n">
         <v>192.9654699154601</v>
@@ -2482,13 +2482,13 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>237.4804158064617</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>91.83775925370358</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2573,7 +2573,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,13 +2710,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2725,7 +2725,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2761,7 +2761,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>115.526976800218</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
@@ -2770,13 +2770,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>98.4332538495557</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2810,7 +2810,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>124.6287235533804</v>
       </c>
       <c r="C31" t="n">
-        <v>109.8918198631969</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965567</v>
+        <v>93.41221638965541</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>91.23070601801223</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>90.2177913943743</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348209</v>
+        <v>111.2903118348206</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897944</v>
+        <v>93.71057173897918</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571529</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523609</v>
+        <v>54.76109577523583</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7175533550466</v>
+        <v>142.7175533550463</v>
       </c>
       <c r="T31" t="n">
-        <v>166.3443044298326</v>
+        <v>166.3443044298323</v>
       </c>
       <c r="U31" t="n">
-        <v>231.0340957700207</v>
+        <v>90.06468350316932</v>
       </c>
       <c r="V31" t="n">
-        <v>196.9343866952713</v>
+        <v>196.9343866952711</v>
       </c>
       <c r="W31" t="n">
-        <v>231.3197417080343</v>
+        <v>231.3197417080341</v>
       </c>
       <c r="X31" t="n">
-        <v>170.5063987604805</v>
+        <v>170.5063987604802</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3813967235381</v>
+        <v>163.3813967235378</v>
       </c>
     </row>
     <row r="32">
@@ -3044,7 +3044,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H32" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113192</v>
       </c>
       <c r="I32" t="n">
         <v>81.77913505274074</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857172</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3244,16 +3244,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V34" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W34" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X34" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y34" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="35">
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3281,7 +3281,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H35" t="n">
-        <v>305.2872491113183</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
         <v>81.77913505274074</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857172</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373696</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463132</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3481,16 +3481,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V37" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W37" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X37" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y37" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="38">
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3661,25 +3661,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E40" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373692</v>
+        <v>98.3616783337369</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463129</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415212</v>
+        <v>41.8324622741521</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3898,25 +3898,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D43" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692852</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463133</v>
+        <v>42.2873553346313</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415211</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898722</v>
       </c>
       <c r="D46" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857175</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692856</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329064</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373698</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789552</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463136</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415216</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4192,16 +4192,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V46" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W46" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X46" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y46" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
   </sheetData>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1305.667163696621</v>
+        <v>2107.607341885688</v>
       </c>
       <c r="C2" t="n">
-        <v>990.5839652830418</v>
+        <v>2107.607341885688</v>
       </c>
       <c r="D2" t="n">
-        <v>632.3182666762914</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E2" t="n">
-        <v>632.3182666762914</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F2" t="n">
-        <v>625.3727659270879</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2302.336936304455</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U2" t="n">
-        <v>2048.575150942547</v>
+        <v>2460.375997155802</v>
       </c>
       <c r="V2" t="n">
-        <v>2048.575150942547</v>
+        <v>2460.375997155802</v>
       </c>
       <c r="W2" t="n">
-        <v>1695.806495672433</v>
+        <v>2107.607341885688</v>
       </c>
       <c r="X2" t="n">
-        <v>1695.806495672433</v>
+        <v>2107.607341885688</v>
       </c>
       <c r="Y2" t="n">
-        <v>1305.667163696621</v>
+        <v>2107.607341885688</v>
       </c>
     </row>
     <row r="3">
@@ -4383,22 +4383,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4407,16 +4407,16 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>266.2060027641987</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598706</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4443,7 +4443,7 @@
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
         <v>1572.325111207638</v>
@@ -4462,25 +4462,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>359.2716929833838</v>
+        <v>252.6519168570173</v>
       </c>
       <c r="C4" t="n">
-        <v>359.2716929833838</v>
+        <v>252.6519168570173</v>
       </c>
       <c r="D4" t="n">
-        <v>359.2716929833838</v>
+        <v>252.6519168570173</v>
       </c>
       <c r="E4" t="n">
-        <v>359.2716929833838</v>
+        <v>104.7388232746241</v>
       </c>
       <c r="F4" t="n">
-        <v>359.2716929833838</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>586.579880314782</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>586.579880314782</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>359.2716929833838</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>359.2716929833838</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>359.2716929833838</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="W4" t="n">
-        <v>359.2716929833838</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="X4" t="n">
-        <v>359.2716929833838</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="Y4" t="n">
-        <v>359.2716929833838</v>
+        <v>252.6519168570173</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4541,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1697.251320989584</v>
+        <v>1447.000728742896</v>
       </c>
       <c r="C5" t="n">
-        <v>1697.251320989584</v>
+        <v>1078.038211802484</v>
       </c>
       <c r="D5" t="n">
-        <v>1338.985622382834</v>
+        <v>1078.038211802484</v>
       </c>
       <c r="E5" t="n">
-        <v>1338.985622382834</v>
+        <v>692.24995920424</v>
       </c>
       <c r="F5" t="n">
-        <v>952.5674858910851</v>
+        <v>281.2640544146324</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T5" t="n">
-        <v>2423.485734520778</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U5" t="n">
-        <v>2423.485734520778</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="V5" t="n">
-        <v>2423.485734520778</v>
+        <v>2189.908715988822</v>
       </c>
       <c r="W5" t="n">
-        <v>2070.717079250664</v>
+        <v>1837.140060718708</v>
       </c>
       <c r="X5" t="n">
-        <v>1697.251320989584</v>
+        <v>1837.140060718708</v>
       </c>
       <c r="Y5" t="n">
-        <v>1697.251320989584</v>
+        <v>1447.000728742896</v>
       </c>
     </row>
     <row r="6">
@@ -4647,13 +4647,13 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641987</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598706</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4668,7 +4668,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
         <v>2488.762748073963</v>
@@ -4699,13 +4699,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036445</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>484.4236418782191</v>
+        <v>572.7652939586234</v>
       </c>
       <c r="T7" t="n">
-        <v>343.1165921657965</v>
+        <v>572.7652939586234</v>
       </c>
       <c r="U7" t="n">
-        <v>53.94298182036445</v>
+        <v>572.7652939586234</v>
       </c>
       <c r="V7" t="n">
-        <v>53.94298182036445</v>
+        <v>572.7652939586234</v>
       </c>
       <c r="W7" t="n">
-        <v>53.94298182036445</v>
+        <v>572.7652939586234</v>
       </c>
       <c r="X7" t="n">
-        <v>53.94298182036445</v>
+        <v>572.7652939586234</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036445</v>
+        <v>351.9727148150933</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1336.435086552838</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="C8" t="n">
-        <v>967.4725696124262</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="D8" t="n">
-        <v>967.4725696124262</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E8" t="n">
-        <v>967.4725696124262</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F8" t="n">
-        <v>625.3727659270879</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4820,34 +4820,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T8" t="n">
-        <v>2465.942913862886</v>
+        <v>2478.514423990286</v>
       </c>
       <c r="U8" t="n">
-        <v>2465.942913862886</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="V8" t="n">
-        <v>2465.942913862886</v>
+        <v>1893.689751284806</v>
       </c>
       <c r="W8" t="n">
-        <v>2113.174258592771</v>
+        <v>1540.921096014692</v>
       </c>
       <c r="X8" t="n">
-        <v>2113.174258592771</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="Y8" t="n">
-        <v>1723.03492661696</v>
+        <v>1268.68094731003</v>
       </c>
     </row>
     <row r="9">
@@ -4878,7 +4878,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
@@ -4890,7 +4890,7 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>473.4444960005476</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="C10" t="n">
-        <v>359.6044479702274</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="D10" t="n">
-        <v>359.6044479702274</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="E10" t="n">
-        <v>211.6913543878343</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="F10" t="n">
-        <v>211.6913543878343</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="G10" t="n">
-        <v>211.6913543878343</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
         <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600563</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600563</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600563</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600563</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064344</v>
+        <v>418.2614436197335</v>
       </c>
       <c r="V10" t="n">
-        <v>473.4444960005476</v>
+        <v>418.2614436197335</v>
       </c>
       <c r="W10" t="n">
-        <v>473.4444960005476</v>
+        <v>418.2614436197335</v>
       </c>
       <c r="X10" t="n">
-        <v>473.4444960005476</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="Y10" t="n">
-        <v>473.4444960005476</v>
+        <v>190.2718927217162</v>
       </c>
     </row>
     <row r="11">
@@ -5015,31 +5015,31 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I11" t="n">
-        <v>97.2170914602857</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K11" t="n">
         <v>889.2841917514083</v>
@@ -5051,31 +5051,31 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
         <v>3578.526314851616</v>
@@ -5115,28 +5115,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J12" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K12" t="n">
-        <v>97.21709146028589</v>
+        <v>222.5746515181233</v>
       </c>
       <c r="L12" t="n">
-        <v>97.21709146028589</v>
+        <v>452.5377573864724</v>
       </c>
       <c r="M12" t="n">
-        <v>417.5524109899877</v>
+        <v>897.6601296826478</v>
       </c>
       <c r="N12" t="n">
-        <v>1221.963989254139</v>
+        <v>1702.071707946799</v>
       </c>
       <c r="O12" t="n">
-        <v>1808.163466324677</v>
+        <v>2371.535469249458</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2554.178946862809</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,40 +5173,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>266.1532743881928</v>
+        <v>416.2699138005285</v>
       </c>
       <c r="C13" t="n">
-        <v>97.21709146028589</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471195</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5218,31 +5218,31 @@
         <v>1460.082827585747</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1281.032036247722</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U13" t="n">
-        <v>991.90339746128</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V13" t="n">
-        <v>737.2189092553931</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W13" t="n">
-        <v>447.8017392184325</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="X13" t="n">
-        <v>447.8017392184325</v>
+        <v>818.7109577742983</v>
       </c>
       <c r="Y13" t="n">
-        <v>447.8017392184325</v>
+        <v>597.9183786307682</v>
       </c>
     </row>
     <row r="14">
@@ -5258,31 +5258,31 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H14" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
@@ -5291,16 +5291,16 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
         <v>4726.561275231264</v>
@@ -5352,31 +5352,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K15" t="n">
-        <v>97.21709146028589</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L15" t="n">
-        <v>97.21709146028589</v>
+        <v>738.0704661731477</v>
       </c>
       <c r="M15" t="n">
-        <v>417.5524109899877</v>
+        <v>1058.405785702849</v>
       </c>
       <c r="N15" t="n">
-        <v>1221.963989254139</v>
+        <v>1862.817363967</v>
       </c>
       <c r="O15" t="n">
-        <v>1891.427750556798</v>
+        <v>2371.535469249458</v>
       </c>
       <c r="P15" t="n">
-        <v>2317.834075963124</v>
+        <v>2554.178946862809</v>
       </c>
       <c r="Q15" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>266.1532743881928</v>
+        <v>415.509052552801</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028589</v>
+        <v>415.509052552801</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028589</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028589</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028589</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839242004</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688119</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799412</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471239</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
-        <v>1049.608084974672</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980069</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585751</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557907</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557907</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.99626047346</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T16" t="n">
-        <v>1298.99626047346</v>
+        <v>1408.392840837196</v>
       </c>
       <c r="U16" t="n">
-        <v>1031.04751177457</v>
+        <v>1408.392840837196</v>
       </c>
       <c r="V16" t="n">
-        <v>776.3630235686835</v>
+        <v>1153.708352631309</v>
       </c>
       <c r="W16" t="n">
-        <v>486.9458535317229</v>
+        <v>864.2911825943485</v>
       </c>
       <c r="X16" t="n">
-        <v>486.9458535317229</v>
+        <v>636.3016316963311</v>
       </c>
       <c r="Y16" t="n">
-        <v>266.1532743881928</v>
+        <v>415.509052552801</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155904</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5589,28 +5589,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K18" t="n">
-        <v>97.21709146028589</v>
+        <v>222.5746515181232</v>
       </c>
       <c r="L18" t="n">
-        <v>97.21709146028589</v>
+        <v>452.5377573864724</v>
       </c>
       <c r="M18" t="n">
-        <v>417.5524109899877</v>
+        <v>1220.905903778934</v>
       </c>
       <c r="N18" t="n">
-        <v>1138.699705022017</v>
+        <v>1702.071707946799</v>
       </c>
       <c r="O18" t="n">
-        <v>1808.163466324677</v>
+        <v>2371.535469249458</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2554.178946862809</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5647,40 +5647,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.2170914602859</v>
+        <v>413.0432218861031</v>
       </c>
       <c r="C19" t="n">
-        <v>97.2170914602859</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="D19" t="n">
-        <v>97.2170914602859</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E19" t="n">
-        <v>97.2170914602859</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F19" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5689,34 +5689,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>1298.996260473455</v>
+        <v>1359.585924102721</v>
       </c>
       <c r="U19" t="n">
-        <v>1090.100879744681</v>
+        <v>1359.585924102721</v>
       </c>
       <c r="V19" t="n">
-        <v>835.416391538794</v>
+        <v>1104.901435896834</v>
       </c>
       <c r="W19" t="n">
-        <v>545.9992215018334</v>
+        <v>815.4842658598729</v>
       </c>
       <c r="X19" t="n">
-        <v>318.009670603816</v>
+        <v>815.4842658598729</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.2170914602859</v>
+        <v>594.6916867163428</v>
       </c>
     </row>
     <row r="20">
@@ -5726,7 +5726,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
@@ -5735,28 +5735,28 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823788</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
@@ -5765,37 +5765,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5826,25 +5826,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571611</v>
+        <v>416.7562627979261</v>
       </c>
       <c r="L21" t="n">
-        <v>1288.32563221405</v>
+        <v>646.7193686662753</v>
       </c>
       <c r="M21" t="n">
-        <v>1954.109744073479</v>
+        <v>967.0546881959771</v>
       </c>
       <c r="N21" t="n">
-        <v>1954.109744073479</v>
+        <v>1771.466266460128</v>
       </c>
       <c r="O21" t="n">
-        <v>2623.573505376138</v>
+        <v>2440.930027762787</v>
       </c>
       <c r="P21" t="n">
         <v>2623.573505376138</v>
@@ -5884,40 +5884,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>437.6964226305964</v>
+        <v>416.2699138005285</v>
       </c>
       <c r="C22" t="n">
-        <v>268.7602397026895</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D22" t="n">
-        <v>268.7602397026895</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>268.7602397026895</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>121.8702922047792</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>121.8702922047792</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5926,34 +5926,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T22" t="n">
-        <v>1498.916270557903</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U22" t="n">
-        <v>1209.787631771461</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="V22" t="n">
-        <v>955.1031435655744</v>
+        <v>1020.446367141521</v>
       </c>
       <c r="W22" t="n">
-        <v>665.6859735286138</v>
+        <v>865.0520438420759</v>
       </c>
       <c r="X22" t="n">
-        <v>437.6964226305964</v>
+        <v>637.0624929440586</v>
       </c>
       <c r="Y22" t="n">
-        <v>437.6964226305964</v>
+        <v>416.2699138005285</v>
       </c>
     </row>
     <row r="23">
@@ -5963,34 +5963,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003443</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405199</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155909</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H23" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795207</v>
@@ -5999,40 +5999,40 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
         <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6054,31 +6054,31 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126483</v>
+        <v>237.1439506606952</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571611</v>
+        <v>648.0342195052079</v>
       </c>
       <c r="L24" t="n">
-        <v>1288.32563221405</v>
+        <v>1261.931289262097</v>
       </c>
       <c r="M24" t="n">
-        <v>1954.109744073479</v>
+        <v>2030.299435654558</v>
       </c>
       <c r="N24" t="n">
-        <v>1954.109744073479</v>
+        <v>2374.820091292176</v>
       </c>
       <c r="O24" t="n">
         <v>2623.573505376138</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>582.2416896507654</v>
+        <v>266.1532743881927</v>
       </c>
       <c r="C25" t="n">
-        <v>413.3055067228585</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>413.3055067228585</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>265.3924131404653</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>265.3924131404653</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241958</v>
@@ -6154,7 +6154,7 @@
         <v>507.4972331799366</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471195</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6169,28 +6169,28 @@
         <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S25" t="n">
-        <v>1187.921157035281</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T25" t="n">
-        <v>964.1357418247865</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U25" t="n">
-        <v>675.0071030383448</v>
+        <v>1259.037062672588</v>
       </c>
       <c r="V25" t="n">
-        <v>675.0071030383448</v>
+        <v>1004.352574466701</v>
       </c>
       <c r="W25" t="n">
-        <v>582.2416896507654</v>
+        <v>714.9354044297402</v>
       </c>
       <c r="X25" t="n">
-        <v>582.2416896507654</v>
+        <v>486.9458535317228</v>
       </c>
       <c r="Y25" t="n">
-        <v>582.2416896507654</v>
+        <v>266.1532743881927</v>
       </c>
     </row>
     <row r="26">
@@ -6200,22 +6200,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H26" t="n">
         <v>179.8222783822462</v>
@@ -6242,31 +6242,31 @@
         <v>3889.732883643324</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R26" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6303,19 +6303,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126483</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K27" t="n">
-        <v>674.428562457161</v>
+        <v>222.5746515181232</v>
       </c>
       <c r="L27" t="n">
-        <v>1288.32563221405</v>
+        <v>802.0403666355637</v>
       </c>
       <c r="M27" t="n">
-        <v>1954.109744073479</v>
+        <v>1570.408513028025</v>
       </c>
       <c r="N27" t="n">
-        <v>1954.109744073479</v>
+        <v>2374.820091292176</v>
       </c>
       <c r="O27" t="n">
         <v>2623.573505376138</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028584</v>
+        <v>415.509052552801</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028584</v>
+        <v>415.509052552801</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241958</v>
@@ -6409,25 +6409,25 @@
         <v>1498.916270557903</v>
       </c>
       <c r="S28" t="n">
-        <v>1382.222354598087</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T28" t="n">
-        <v>1158.436939387592</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U28" t="n">
-        <v>869.3083006011507</v>
+        <v>986.0022165609666</v>
       </c>
       <c r="V28" t="n">
-        <v>614.6238123952638</v>
+        <v>986.0022165609666</v>
       </c>
       <c r="W28" t="n">
-        <v>325.2066423583032</v>
+        <v>696.5850465240061</v>
       </c>
       <c r="X28" t="n">
-        <v>97.21709146028584</v>
+        <v>597.1575173830407</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028584</v>
+        <v>597.1575173830407</v>
       </c>
     </row>
     <row r="29">
@@ -6437,34 +6437,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805474</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822468</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795207</v>
@@ -6485,28 +6485,28 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="30">
@@ -6528,16 +6528,16 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G30" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
         <v>263.5382936126483</v>
@@ -6546,13 +6546,13 @@
         <v>674.428562457161</v>
       </c>
       <c r="L30" t="n">
-        <v>1288.32563221405</v>
+        <v>904.3916683255102</v>
       </c>
       <c r="M30" t="n">
-        <v>2056.693778606511</v>
+        <v>1672.759814717972</v>
       </c>
       <c r="N30" t="n">
-        <v>2623.573505376138</v>
+        <v>2017.28047035559</v>
       </c>
       <c r="O30" t="n">
         <v>2623.573505376138</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>565.4200295030819</v>
+        <v>581.9257756783079</v>
       </c>
       <c r="C31" t="n">
-        <v>454.4181912574286</v>
+        <v>581.9257756783079</v>
       </c>
       <c r="D31" t="n">
-        <v>360.0624171264632</v>
+        <v>487.5700015473428</v>
       </c>
       <c r="E31" t="n">
-        <v>360.0624171264632</v>
+        <v>395.4177732463204</v>
       </c>
       <c r="F31" t="n">
-        <v>360.0624171264632</v>
+        <v>304.2886910297807</v>
       </c>
       <c r="G31" t="n">
-        <v>247.6479607276542</v>
+        <v>191.8742346309719</v>
       </c>
       <c r="H31" t="n">
-        <v>152.990817556968</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I31" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
-        <v>164.2510079864669</v>
+        <v>164.2510079864671</v>
       </c>
       <c r="K31" t="n">
-        <v>369.0876362933496</v>
+        <v>369.08763629335</v>
       </c>
       <c r="L31" t="n">
-        <v>671.45090536675</v>
+        <v>671.4509053667507</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962039</v>
+        <v>997.6688721962049</v>
       </c>
       <c r="N31" t="n">
-        <v>1322.864205286023</v>
+        <v>1322.864205286024</v>
       </c>
       <c r="O31" t="n">
-        <v>1611.390407353691</v>
+        <v>1611.390407353692</v>
       </c>
       <c r="P31" t="n">
-        <v>1842.641396021645</v>
+        <v>1842.641396021646</v>
       </c>
       <c r="Q31" t="n">
-        <v>1936.126063056072</v>
+        <v>1936.126063056073</v>
       </c>
       <c r="R31" t="n">
-        <v>1880.811824899268</v>
+        <v>1880.81182489927</v>
       </c>
       <c r="S31" t="n">
-        <v>1736.65268009619</v>
+        <v>1736.652680096193</v>
       </c>
       <c r="T31" t="n">
-        <v>1568.628130167067</v>
+        <v>1568.628130167069</v>
       </c>
       <c r="U31" t="n">
-        <v>1335.260356661995</v>
+        <v>1477.65370238609</v>
       </c>
       <c r="V31" t="n">
-        <v>1136.336733737479</v>
+        <v>1278.730079461574</v>
       </c>
       <c r="W31" t="n">
-        <v>902.6804289818884</v>
+        <v>1045.073774705984</v>
       </c>
       <c r="X31" t="n">
-        <v>730.4517433652416</v>
+        <v>872.8450890893372</v>
       </c>
       <c r="Y31" t="n">
-        <v>565.4200295030819</v>
+        <v>707.8133752271769</v>
       </c>
     </row>
     <row r="32">
@@ -6674,10 +6674,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D32" t="n">
         <v>1701.093169003442</v>
@@ -6686,25 +6686,25 @@
         <v>1315.304916405198</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155904</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805485</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J32" t="n">
         <v>365.8813331823794</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515098</v>
@@ -6713,37 +6713,37 @@
         <v>3183.709822619129</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P32" t="n">
         <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S32" t="n">
         <v>4726.561275231265</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="33">
@@ -6774,25 +6774,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>225.285854896922</v>
       </c>
       <c r="K33" t="n">
-        <v>263.5382936126482</v>
+        <v>636.1761237414347</v>
       </c>
       <c r="L33" t="n">
-        <v>877.4353633695368</v>
+        <v>1250.073193498323</v>
       </c>
       <c r="M33" t="n">
-        <v>1645.803509761998</v>
+        <v>1570.408513028025</v>
       </c>
       <c r="N33" t="n">
-        <v>2103.272883640391</v>
+        <v>2374.820091292176</v>
       </c>
       <c r="O33" t="n">
-        <v>2103.272883640391</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P33" t="n">
         <v>2623.573505376138</v>
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229673</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D34" t="n">
         <v>478.0475988506727</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083207</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G34" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103131</v>
       </c>
       <c r="H34" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982974</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J34" t="n">
         <v>177.05035515254</v>
@@ -6862,7 +6862,7 @@
         <v>394.6863306254957</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6877,7 +6877,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q34" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R34" t="n">
         <v>1996.265827986523</v>
@@ -6895,13 +6895,13 @@
         <v>1304.027639859417</v>
       </c>
       <c r="W34" t="n">
-        <v>1083.430560862498</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045215</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010318</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
     <row r="35">
@@ -6914,19 +6914,19 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805476</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822462</v>
@@ -6935,13 +6935,13 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
@@ -6956,7 +6956,7 @@
         <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
         <v>4860.854573014293</v>
@@ -7014,16 +7014,16 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
-        <v>97.21709146028587</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K36" t="n">
-        <v>508.1073603047985</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L36" t="n">
-        <v>1122.004430061687</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M36" t="n">
-        <v>1890.372576454149</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="N36" t="n">
         <v>2623.573505376138</v>
@@ -7069,10 +7069,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C37" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D37" t="n">
         <v>478.0475988506726</v>
@@ -7090,7 +7090,7 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J37" t="n">
         <v>177.0503551525399</v>
@@ -7099,7 +7099,7 @@
         <v>394.6863306254957</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
@@ -7117,10 +7117,10 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R37" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S37" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942115</v>
       </c>
       <c r="T37" t="n">
         <v>1710.200584771663</v>
@@ -7135,10 +7135,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045208</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
     <row r="38">
@@ -7148,22 +7148,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822462</v>
@@ -7172,13 +7172,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
@@ -7187,34 +7187,34 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R38" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7239,37 +7239,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G39" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I39" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>97.21709146028584</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L39" t="n">
-        <v>97.21709146028584</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M39" t="n">
-        <v>334.288126757867</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="N39" t="n">
-        <v>1138.699705022018</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O39" t="n">
-        <v>1808.163466324677</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.460239110833</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229671</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506724</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G40" t="n">
         <v>221.5295092103129</v>
@@ -7327,16 +7327,16 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7345,10 +7345,10 @@
         <v>1386.860941116388</v>
       </c>
       <c r="O40" t="n">
-        <v>1688.186490350129</v>
+        <v>1688.18649035013</v>
       </c>
       <c r="P40" t="n">
-        <v>1932.236826184156</v>
+        <v>1932.236826184157</v>
       </c>
       <c r="Q40" t="n">
         <v>2038.520840384657</v>
@@ -7372,10 +7372,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045206</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010316</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
     <row r="41">
@@ -7385,34 +7385,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155884</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795207</v>
@@ -7424,37 +7424,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="42">
@@ -7485,28 +7485,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K42" t="n">
-        <v>97.21709146028584</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L42" t="n">
-        <v>97.21709146028584</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M42" t="n">
-        <v>334.288126757867</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="N42" t="n">
-        <v>1138.699705022018</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O42" t="n">
-        <v>1808.163466324677</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7543,16 +7543,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C43" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506723</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083201</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F43" t="n">
         <v>320.8847398504512</v>
@@ -7573,7 +7573,7 @@
         <v>394.6863306254957</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
@@ -7609,10 +7609,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
     <row r="44">
@@ -7634,10 +7634,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H44" t="n">
         <v>179.8222783822462</v>
@@ -7646,13 +7646,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
@@ -7661,22 +7661,22 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
         <v>4262.3578574653</v>
@@ -7713,37 +7713,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G45" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H45" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I45" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>97.21709146028584</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L45" t="n">
-        <v>97.21709146028584</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M45" t="n">
-        <v>334.288126757867</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="N45" t="n">
-        <v>1138.699705022018</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O45" t="n">
-        <v>1808.163466324677</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P45" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q45" t="n">
         <v>2623.573505376138</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229673</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504511</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103129</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H46" t="n">
         <v>139.9315917982973</v>
@@ -7804,13 +7804,13 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
-        <v>177.0503551525401</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
@@ -7825,7 +7825,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q46" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R46" t="n">
         <v>1996.265827986523</v>
@@ -7834,7 +7834,7 @@
         <v>1865.165908942117</v>
       </c>
       <c r="T46" t="n">
-        <v>1710.200584771663</v>
+        <v>1710.200584771664</v>
       </c>
       <c r="U46" t="n">
         <v>1489.892037025263</v>
@@ -8295,7 +8295,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>145.0294169142008</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8541,7 +8541,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8769,10 +8769,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
         <v>465.7050637499999</v>
@@ -9006,10 +9006,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
         <v>465.7050637499999</v>
@@ -9243,10 +9243,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
         <v>465.7050637499999</v>
@@ -9489,13 +9489,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -9726,7 +9726,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
         <v>393.8623192767295</v>
@@ -9896,7 +9896,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298105</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9963,7 +9963,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
         <v>393.8623192767295</v>
@@ -10203,7 +10203,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -10428,7 +10428,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
@@ -10440,10 +10440,10 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -10844,7 +10844,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298105</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10902,25 +10902,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>381.5997261417972</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11139,25 +11139,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>381.5997261417972</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11376,25 +11376,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>381.5997261417972</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23419,7 +23419,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23467,10 +23467,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>5.842169091310069</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23479,10 +23479,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>90.96703739368829</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23653,10 +23653,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23665,7 +23665,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
@@ -23701,13 +23701,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>131.9293656348897</v>
       </c>
       <c r="U16" t="n">
-        <v>20.96809118667712</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23887,10 +23887,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23899,7 +23899,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>166.4935684633776</v>
@@ -23938,13 +23938,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>83.61051806775924</v>
       </c>
       <c r="U19" t="n">
-        <v>79.43092547709095</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23953,7 +23953,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24130,19 +24130,19 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>124.5071596304878</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
         <v>110.419245464272</v>
@@ -24178,22 +24178,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>132.68261827014</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24370,13 +24370,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
@@ -24409,28 +24409,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>48.75693659211569</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>194.6852390828874</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24598,13 +24598,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24613,7 +24613,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>148.9138283675361</v>
@@ -24649,7 +24649,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>82.39383318338525</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24658,13 +24658,13 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>127.2764015394815</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24835,19 +24835,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>124.6287235533806</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>2.151744606874288</v>
+        <v>112.0435644700709</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801248</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437456</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24856,7 +24856,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>55.21598883571502</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24892,7 +24892,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>140.9694122668513</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1153535.726226241</v>
+        <v>1153535.726226242</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1153535.726226242</v>
+        <v>1153535.726226241</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1153535.726226241</v>
+        <v>1153535.726226242</v>
       </c>
     </row>
     <row r="9">
@@ -26350,10 +26350,10 @@
         <v>225786.4867126781</v>
       </c>
       <c r="O2" t="n">
-        <v>225786.4867126781</v>
+        <v>225786.4867126782</v>
       </c>
       <c r="P2" t="n">
-        <v>225786.4867126781</v>
+        <v>225786.4867126782</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768965</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925928</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284535</v>
+        <v>44162.60530284556</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086699</v>
+        <v>10342.90680086697</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338373</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284535</v>
+        <v>44162.60530284551</v>
       </c>
     </row>
     <row r="4">
@@ -26421,43 +26421,43 @@
         <v>139059.1391806191</v>
       </c>
       <c r="D4" t="n">
-        <v>139059.1391806191</v>
+        <v>139059.139180619</v>
       </c>
       <c r="E4" t="n">
-        <v>787.7936905757878</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="F4" t="n">
-        <v>787.7936905758701</v>
+        <v>787.7936905758822</v>
       </c>
       <c r="G4" t="n">
-        <v>787.7936905757998</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="H4" t="n">
-        <v>787.7936905758024</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="I4" t="n">
-        <v>787.7936905758697</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="J4" t="n">
-        <v>787.7936905758822</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="K4" t="n">
-        <v>18952.41620477228</v>
+        <v>18952.41620477237</v>
       </c>
       <c r="L4" t="n">
-        <v>23206.58093189634</v>
+        <v>23206.58093189628</v>
       </c>
       <c r="M4" t="n">
-        <v>23206.58093189631</v>
+        <v>23206.58093189632</v>
       </c>
       <c r="N4" t="n">
-        <v>23206.58093189637</v>
+        <v>23206.58093189636</v>
       </c>
       <c r="O4" t="n">
-        <v>23206.58093189634</v>
+        <v>23206.58093189633</v>
       </c>
       <c r="P4" t="n">
-        <v>23206.58093189634</v>
+        <v>23206.58093189633</v>
       </c>
     </row>
     <row r="5">
@@ -26473,31 +26473,31 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>96628.20853022276</v>
+        <v>96628.20853022279</v>
       </c>
       <c r="L5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002542</v>
       </c>
       <c r="M5" t="n">
         <v>97715.1058200254</v>
@@ -26506,7 +26506,7 @@
         <v>97715.10582002539</v>
       </c>
       <c r="O5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="P5" t="n">
         <v>97715.10582002539</v>
@@ -26519,40 +26519,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-586099.6097458951</v>
+        <v>-586099.609745895</v>
       </c>
       <c r="C6" t="n">
-        <v>3868.269468649436</v>
+        <v>3868.269468649407</v>
       </c>
       <c r="D6" t="n">
-        <v>3868.269468649407</v>
+        <v>3868.269468649509</v>
       </c>
       <c r="E6" t="n">
-        <v>-402869.1732604491</v>
+        <v>-402966.6323864209</v>
       </c>
       <c r="F6" t="n">
-        <v>122290.8632164474</v>
+        <v>122193.4040904752</v>
       </c>
       <c r="G6" t="n">
-        <v>122290.8632164474</v>
+        <v>122193.4040904752</v>
       </c>
       <c r="H6" t="n">
-        <v>122290.8632164474</v>
+        <v>122193.4040904752</v>
       </c>
       <c r="I6" t="n">
-        <v>122290.8632164474</v>
+        <v>122193.4040904752</v>
       </c>
       <c r="J6" t="n">
-        <v>-54132.35597614541</v>
+        <v>-54229.81510211776</v>
       </c>
       <c r="K6" t="n">
-        <v>64008.94550205828</v>
+        <v>63990.45176412357</v>
       </c>
       <c r="L6" t="n">
-        <v>94521.89315988941</v>
+        <v>94521.89315988951</v>
       </c>
       <c r="M6" t="n">
-        <v>-29936.21527308083</v>
+        <v>-29936.21527308068</v>
       </c>
       <c r="N6" t="n">
         <v>104864.7999607564</v>
@@ -26561,7 +26561,7 @@
         <v>104864.7999607564</v>
       </c>
       <c r="P6" t="n">
-        <v>60702.19465791104</v>
+        <v>60702.19465791095</v>
       </c>
     </row>
   </sheetData>
@@ -26710,22 +26710,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855669</v>
+        <v>55.20325662855694</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N2" t="n">
+        <v>68.13189012964068</v>
+      </c>
+      <c r="O2" t="n">
         <v>68.13189012964067</v>
       </c>
-      <c r="O2" t="n">
-        <v>68.13189012964065</v>
-      </c>
       <c r="P2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
     </row>
     <row r="3">
@@ -26735,49 +26735,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
+        <v>830.3824054541003</v>
+      </c>
+      <c r="G3" t="n">
+        <v>830.3824054541003</v>
+      </c>
+      <c r="H3" t="n">
+        <v>830.3824054541003</v>
+      </c>
+      <c r="I3" t="n">
         <v>830.3824054541004</v>
       </c>
-      <c r="G3" t="n">
-        <v>830.3824054541005</v>
-      </c>
-      <c r="H3" t="n">
-        <v>830.3824054541005</v>
-      </c>
-      <c r="I3" t="n">
-        <v>830.3824054541006</v>
-      </c>
       <c r="J3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
     </row>
     <row r="4">
@@ -26793,22 +26793,22 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="F4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="G4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="H4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="I4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="J4" t="n">
         <v>1215.213643253573</v>
@@ -26817,7 +26817,7 @@
         <v>1215.213643253573</v>
       </c>
       <c r="L4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="M4" t="n">
         <v>1215.213643253573</v>
@@ -26932,10 +26932,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855669</v>
+        <v>55.20325662855694</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108394</v>
+        <v>12.92863350108371</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855669</v>
+        <v>55.20325662855689</v>
       </c>
     </row>
     <row r="3">
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370138</v>
+        <v>452.6387412370137</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990179</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545551</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990179</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855669</v>
+        <v>55.20325662855694</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990179</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,22 +27379,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>53.34052534156427</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27424,16 +27424,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>245.7129199682765</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27445,7 +27445,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27515,7 +27515,7 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -27543,22 +27543,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>95.13316498321416</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,19 +27582,19 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>6.531579127421963</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27603,7 +27603,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27616,25 +27616,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>24.32209061488027</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>188.7363081524697</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,28 +27661,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27777,10 +27777,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27795,7 +27795,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,19 +27816,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>58.3354856046862</v>
       </c>
       <c r="T7" t="n">
-        <v>85.14112624278596</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27840,7 +27840,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,19 +27850,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>68.19724009322653</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27871,7 +27871,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,28 +27898,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>100.2133534608529</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28011,13 +28011,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>54.54517354861085</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28026,13 +28026,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,10 +28053,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28065,16 +28065,16 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>8.635759016058273</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28342,7 +28342,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28375,7 +28375,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>-7.255709647795812e-13</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -28506,7 +28506,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>4.689582056016661e-12</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -29272,7 +29272,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855669</v>
+        <v>55.20325662855694</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855669</v>
+        <v>55.20325662855694</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855669</v>
+        <v>55.20325662855694</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855669</v>
+        <v>55.20325662855694</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855669</v>
+        <v>55.20325662855694</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855669</v>
+        <v>55.20325662855694</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855669</v>
+        <v>55.20325662855694</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855669</v>
+        <v>55.20325662855694</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855669</v>
+        <v>55.20325662855694</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855669</v>
+        <v>55.20325662855694</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855669</v>
+        <v>55.20325662855694</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855669</v>
+        <v>55.20325662855694</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855669</v>
+        <v>55.20325662855694</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855669</v>
+        <v>55.20325662855694</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855669</v>
+        <v>55.20325662855694</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855669</v>
+        <v>55.20325662855694</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855669</v>
+        <v>55.20325662855694</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855669</v>
+        <v>55.20325662855694</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855669</v>
+        <v>55.20325662855694</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855669</v>
+        <v>55.20325662855694</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855669</v>
+        <v>55.20325662855694</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855669</v>
+        <v>55.20325662855694</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855669</v>
+        <v>55.20325662855694</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855669</v>
+        <v>55.20325662855694</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="38">
@@ -30220,7 +30220,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
     </row>
   </sheetData>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,19 +31118,19 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
-        <v>87.78329382423925</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L3" t="n">
         <v>176.4169820478007</v>
@@ -31139,28 +31139,28 @@
         <v>205.8702969983122</v>
       </c>
       <c r="N3" t="n">
-        <v>211.31907117367</v>
+        <v>91.88325107529209</v>
       </c>
       <c r="O3" t="n">
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31376,28 +31376,28 @@
         <v>205.8702969983122</v>
       </c>
       <c r="N6" t="n">
-        <v>211.31907117367</v>
+        <v>91.88325107529209</v>
       </c>
       <c r="O6" t="n">
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31519,19 +31519,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31546,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31610,7 +31610,7 @@
         <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>86.43447689993485</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
         <v>211.31907117367</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31671,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31695,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31750,10 +31750,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
         <v>128.6967545176652</v>
@@ -31762,37 +31762,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R11" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31835,7 +31835,7 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
         <v>0.7465913262578567</v>
@@ -31847,19 +31847,19 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>126.0475280469431</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O12" t="n">
-        <v>340.8546090773496</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P12" t="n">
-        <v>341.067822345855</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710957</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>100.1578341526431</v>
@@ -31868,7 +31868,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H13" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P13" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31990,40 +31990,40 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
         <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R14" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32072,13 +32072,13 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
         <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -32087,19 +32087,19 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855527</v>
+        <v>262.5905971701974</v>
       </c>
       <c r="P15" t="n">
-        <v>246.2250987807832</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710957</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
         <v>33.17612723677465</v>
@@ -32151,7 +32151,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
@@ -32163,7 +32163,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
         <v>229.1447054263751</v>
@@ -32175,19 +32175,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,10 +32224,10 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
         <v>128.6967545176652</v>
@@ -32236,37 +32236,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L17" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32309,7 +32309,7 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
         <v>0.7465913262578567</v>
@@ -32321,19 +32321,19 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
-        <v>380.4309478731432</v>
+        <v>138.0254025558048</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P18" t="n">
-        <v>341.067822345855</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710957</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>100.1578341526431</v>
@@ -32342,7 +32342,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H19" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K19" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L19" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P19" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,10 +32461,10 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
         <v>128.6967545176652</v>
@@ -32473,37 +32473,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L20" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647499</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32546,25 +32546,25 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622983</v>
+        <v>28.14182740145506</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358986</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>348.9381740704313</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -32579,7 +32579,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H22" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K22" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L22" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P22" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
         <v>34.18755300444946</v>
@@ -32707,40 +32707,40 @@
         <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961206</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.634194604149</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304442</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565521</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946995</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647498</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R23" t="n">
-        <v>209.6945076446479</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104652</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T23" t="n">
-        <v>14.61306122562945</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32783,25 +32783,25 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127067</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>142.0868531448532</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622983</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358987</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M24" t="n">
-        <v>348.9381740704313</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855528</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -32813,13 +32813,13 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677466</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361493</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1175069441680332</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32856,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H25" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298632</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K25" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L25" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
         <v>234.725964217132</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263752</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P25" t="n">
-        <v>181.1050413469074</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
         <v>125.3877432235692</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337673</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S25" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351819</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
         <v>34.18755300444946</v>
@@ -32956,13 +32956,13 @@
         <v>586.162349956552</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946974</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647497</v>
@@ -32977,7 +32977,7 @@
         <v>14.61306122562944</v>
       </c>
       <c r="U26" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33023,22 +33023,22 @@
         <v>61.49530078127066</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622983</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358986</v>
+        <v>353.0329386354458</v>
       </c>
       <c r="M27" t="n">
-        <v>348.9381740704316</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855527</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -33053,7 +33053,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33093,10 +33093,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H28" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
         <v>45.03122946298631</v>
@@ -33105,10 +33105,10 @@
         <v>105.8669502822383</v>
       </c>
       <c r="K28" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L28" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
         <v>234.725964217132</v>
@@ -33117,7 +33117,7 @@
         <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P28" t="n">
         <v>181.1050413469073</v>
@@ -33129,13 +33129,13 @@
         <v>67.32903897337671</v>
       </c>
       <c r="S28" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
         <v>34.18755300444946</v>
@@ -33193,19 +33193,19 @@
         <v>586.162349956552</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647497</v>
       </c>
       <c r="R29" t="n">
-        <v>209.6945076446464</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
         <v>76.06970478104651</v>
@@ -33214,7 +33214,7 @@
         <v>14.61306122562944</v>
       </c>
       <c r="U29" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33266,16 +33266,16 @@
         <v>288.4168775622983</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358986</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N30" t="n">
-        <v>224.6051223555644</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>361.1511322591779</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -33290,7 +33290,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33330,10 +33330,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H31" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
         <v>45.03122946298631</v>
@@ -33342,10 +33342,10 @@
         <v>105.8669502822383</v>
       </c>
       <c r="K31" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L31" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
         <v>234.725964217132</v>
@@ -33354,7 +33354,7 @@
         <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P31" t="n">
         <v>181.1050413469073</v>
@@ -33366,13 +33366,13 @@
         <v>67.32903897337671</v>
       </c>
       <c r="S31" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33412,7 +33412,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I32" t="n">
         <v>128.6967545176652</v>
@@ -33421,31 +33421,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L32" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P32" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R32" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33494,28 +33494,28 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>130.1089786359913</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>114.089614384621</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -33573,7 +33573,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
@@ -33585,7 +33585,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M34" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N34" t="n">
         <v>229.1447054263751</v>
@@ -33597,19 +33597,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33649,7 +33649,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I35" t="n">
         <v>128.6967545176652</v>
@@ -33658,31 +33658,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L35" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P35" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R35" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33731,22 +33731,22 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N36" t="n">
-        <v>392.6063366508803</v>
+        <v>224.6051223555648</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -33810,7 +33810,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
@@ -33822,7 +33822,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N37" t="n">
         <v>229.1447054263751</v>
@@ -33834,19 +33834,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33886,40 +33886,40 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I38" t="n">
         <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L38" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P38" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R38" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33968,31 +33968,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>224.6051223555648</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>100.1578341526431</v>
@@ -34047,7 +34047,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
@@ -34059,7 +34059,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N40" t="n">
         <v>229.1447054263751</v>
@@ -34071,19 +34071,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34123,7 +34123,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I41" t="n">
         <v>128.6967545176652</v>
@@ -34132,31 +34132,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L41" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34205,31 +34205,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>224.6051223555648</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>100.1578341526431</v>
@@ -34284,7 +34284,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
@@ -34296,7 +34296,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N43" t="n">
         <v>229.1447054263751</v>
@@ -34308,19 +34308,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34360,40 +34360,40 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I44" t="n">
         <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L44" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P44" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R44" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446464</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34442,31 +34442,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813462</v>
+        <v>224.6051223555648</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>100.1578341526431</v>
@@ -34521,7 +34521,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
@@ -34533,7 +34533,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N46" t="n">
         <v>229.1447054263751</v>
@@ -34545,19 +34545,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,10 +34775,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
-        <v>214.4070918624589</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34787,13 +34787,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,10 +35012,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
-        <v>138.389756104752</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35024,13 +35024,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35170,19 +35170,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35258,16 +35258,16 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>410.0055067279164</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349816</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,25 +35489,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M12" t="n">
-        <v>323.5710298279816</v>
+        <v>449.6185578749246</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415666</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O12" t="n">
-        <v>592.1206839096346</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P12" t="n">
-        <v>525.5561835714619</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209233</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,19 +35565,19 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
         <v>236.2373515206029</v>
@@ -35586,7 +35586,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K14" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,28 +35726,28 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M15" t="n">
         <v>323.5710298279816</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415666</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O15" t="n">
-        <v>676.2260215178378</v>
+        <v>513.8566720024825</v>
       </c>
       <c r="P15" t="n">
-        <v>430.7134600063902</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R15" t="n">
-        <v>10.73738595686866</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,19 +35802,19 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016557023</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
         <v>236.2373515206029</v>
@@ -35823,7 +35823,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349816</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,25 +35963,25 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N18" t="n">
-        <v>728.4316101333634</v>
+        <v>486.026064816025</v>
       </c>
       <c r="O18" t="n">
-        <v>676.2260215178378</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714619</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209233</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,19 +36039,19 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
         <v>236.2373515206029</v>
@@ -36060,7 +36060,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502051</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349816</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,25 +36197,25 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005179</v>
+        <v>154.7656254396747</v>
       </c>
       <c r="L21" t="n">
-        <v>620.0980502594837</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
-        <v>672.5092038984129</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O21" t="n">
-        <v>676.2260215178378</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36276,19 +36276,19 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
         <v>236.2373515206029</v>
@@ -36297,7 +36297,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303332</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109074</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221119</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081121</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.499584150205</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349819</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,22 +36434,22 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953156</v>
+        <v>141.3402618185953</v>
       </c>
       <c r="K24" t="n">
         <v>415.0406756005179</v>
       </c>
       <c r="L24" t="n">
-        <v>620.0980502594837</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M24" t="n">
-        <v>672.5092038984129</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O24" t="n">
-        <v>676.2260215178378</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556557</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299106</v>
@@ -36522,19 +36522,19 @@
         <v>250.2141868799286</v>
       </c>
       <c r="M25" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O25" t="n">
-        <v>236.237351520603</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.2256999718748</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,7 +36592,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
         <v>528.6897561303331</v>
@@ -36604,19 +36604,19 @@
         <v>805.3296502221118</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081121</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109105</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q26" t="n">
         <v>350.4995841502049</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,22 +36671,22 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953156</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005179</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L27" t="n">
-        <v>620.0980502594837</v>
+        <v>585.3189041590308</v>
       </c>
       <c r="M27" t="n">
-        <v>672.5092038984131</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O27" t="n">
-        <v>676.2260215178378</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K28" t="n">
         <v>151.7024285299106</v>
@@ -36759,7 +36759,7 @@
         <v>250.2141868799286</v>
       </c>
       <c r="M28" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
         <v>273.2768778056037</v>
@@ -36771,7 +36771,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,7 +36829,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
         <v>528.6897561303331</v>
@@ -36841,19 +36841,19 @@
         <v>805.3296502221118</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081121</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q29" t="n">
         <v>350.4995841502049</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349674</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,22 +36908,22 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
         <v>415.0406756005179</v>
       </c>
       <c r="L30" t="n">
-        <v>620.0980502594837</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
-        <v>776.1294408004663</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N30" t="n">
-        <v>572.6057846157846</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>612.417207091463</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412226</v>
+        <v>67.71102679412249</v>
       </c>
       <c r="K31" t="n">
-        <v>206.9056851584673</v>
+        <v>206.9056851584675</v>
       </c>
       <c r="L31" t="n">
-        <v>305.4174435084853</v>
+        <v>305.4174435084855</v>
       </c>
       <c r="M31" t="n">
-        <v>329.5130978075293</v>
+        <v>329.5130978075294</v>
       </c>
       <c r="N31" t="n">
-        <v>328.4801344341604</v>
+        <v>328.4801344341606</v>
       </c>
       <c r="O31" t="n">
-        <v>291.4406081491596</v>
+        <v>291.4406081491599</v>
       </c>
       <c r="P31" t="n">
-        <v>233.5868572403575</v>
+        <v>233.5868572403577</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043149</v>
+        <v>94.42895660043172</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37072,25 +37072,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,25 +37145,25 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>129.3623873097335</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L33" t="n">
-        <v>620.0980502594834</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M33" t="n">
-        <v>776.1294408004662</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N33" t="n">
-        <v>462.0902766448413</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P33" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520617</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37239,10 +37239,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P34" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q34" t="n">
         <v>107.3575901015154</v>
@@ -37309,25 +37309,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,19 +37382,19 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L36" t="n">
-        <v>620.0980502594834</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M36" t="n">
         <v>776.1294408004662</v>
       </c>
       <c r="N36" t="n">
-        <v>740.6069989111005</v>
+        <v>572.6057846157851</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520617</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37476,10 +37476,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P37" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q37" t="n">
         <v>107.3575901015154</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M39" t="n">
-        <v>239.4656922197789</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N39" t="n">
-        <v>812.5369477415665</v>
+        <v>572.6057846157851</v>
       </c>
       <c r="O39" t="n">
-        <v>676.2260215178377</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,19 +37698,19 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520623</v>
       </c>
       <c r="K40" t="n">
-        <v>219.8343186595512</v>
+        <v>219.8343186595513</v>
       </c>
       <c r="L40" t="n">
-        <v>318.3460770095692</v>
+        <v>318.3460770095693</v>
       </c>
       <c r="M40" t="n">
         <v>342.4417313086132</v>
       </c>
       <c r="N40" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352444</v>
       </c>
       <c r="O40" t="n">
         <v>304.3692416502436</v>
@@ -37719,7 +37719,7 @@
         <v>246.5154907414415</v>
       </c>
       <c r="Q40" t="n">
-        <v>107.3575901015154</v>
+        <v>107.3575901015155</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37783,25 +37783,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M42" t="n">
-        <v>239.4656922197789</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N42" t="n">
-        <v>812.5369477415665</v>
+        <v>572.6057846157851</v>
       </c>
       <c r="O42" t="n">
-        <v>676.2260215178377</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520621</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -37947,13 +37947,13 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N43" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352444</v>
       </c>
       <c r="O43" t="n">
         <v>304.3692416502436</v>
       </c>
       <c r="P43" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q43" t="n">
         <v>107.3575901015154</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N44" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M45" t="n">
-        <v>239.4656922197789</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N45" t="n">
-        <v>812.5369477415665</v>
+        <v>572.6057846157851</v>
       </c>
       <c r="O45" t="n">
-        <v>676.2260215178377</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520616</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
@@ -38187,7 +38187,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O46" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P46" t="n">
         <v>246.5154907414414</v>
